--- a/Use case description/오창현UseCaseDescription.xlsx
+++ b/Use case description/오창현UseCaseDescription.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\SW_engineering_13_group\Use case description\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C8D482-97E3-4BEF-B1EF-42C6A8A9DA86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB5C6F3-03B7-4AD3-86E5-694F0CD15704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{15D10122-E891-4960-AD69-6842C183E103}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="55">
   <si>
     <t>No.</t>
   </si>
@@ -187,10 +187,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>8. 회원에 대한 이용권한과 데이터를 삭제한다. 회원 탈퇴 메시지 출력, 시스템 접속을 종료한다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>8. 대여중인 자전거 리스트를 자전거 ID 순서대로 띄운다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -240,6 +236,22 @@
   </si>
   <si>
     <t>14. 식당 추천 및 예약 서비스를 제공한다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10. 사용자 위치 정보 기반 근처 식당 추천 여부 메시지를 출력한다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>11. 근처 식당 추천 버튼을 누른다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>12. 식당 추천 및 예약 서비스를 제공한다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8. 회원 탈퇴 메시지 출력, 시스템 접속을 종료한다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -294,7 +306,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -304,6 +316,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,7 +429,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -473,6 +491,33 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -811,13 +856,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B74E6A7-CA28-464D-AAD9-9607B7B145D5}">
   <dimension ref="C3:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="41" customWidth="1"/>
+    <col min="4" max="4" width="44" customWidth="1"/>
     <col min="5" max="5" width="46.25" customWidth="1"/>
     <col min="6" max="6" width="8.75" customWidth="1"/>
     <col min="7" max="7" width="39.25" customWidth="1"/>
@@ -963,7 +1008,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="4:8" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D14" s="16" t="s">
         <v>35</v>
       </c>
@@ -974,7 +1019,7 @@
         <v>37</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="4:8" x14ac:dyDescent="0.3">
@@ -1007,7 +1052,7 @@
         <v>4</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.3">
@@ -1057,16 +1102,16 @@
     </row>
     <row r="21" spans="3:9" ht="28.5" x14ac:dyDescent="0.3">
       <c r="D21" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>44</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>45</v>
       </c>
       <c r="G21" s="16" t="s">
         <v>27</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I21" s="16"/>
     </row>
@@ -1074,43 +1119,43 @@
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="G22" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H22" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" s="16" t="s">
         <v>47</v>
-      </c>
-      <c r="I22" s="16" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.3">
       <c r="G23" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="H23" s="16" t="s">
+      <c r="I23" s="16" t="s">
         <v>50</v>
-      </c>
-      <c r="I23" s="16" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.3">
       <c r="G24" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="20"/>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.3">
       <c r="G25" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.3">
       <c r="G26" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>
@@ -1125,6 +1170,11 @@
       <c r="E29" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="G29" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="22"/>
+      <c r="I29" s="23"/>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C30" s="1"/>
@@ -1132,6 +1182,15 @@
         <v>6</v>
       </c>
       <c r="E30" s="1"/>
+      <c r="G30" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I30" s="24" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="31" spans="3:9" ht="28.5" x14ac:dyDescent="0.3">
       <c r="C31" s="2">
@@ -1143,6 +1202,13 @@
       <c r="E31" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="G31" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" s="24"/>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C32" s="2"/>
@@ -1150,8 +1216,15 @@
         <v>9</v>
       </c>
       <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="G32" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="I32" s="24"/>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C33" s="2">
         <v>2</v>
       </c>
@@ -1161,8 +1234,15 @@
       <c r="E33" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="G33" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" s="24"/>
+    </row>
+    <row r="34" spans="3:9" ht="28.5" x14ac:dyDescent="0.3">
       <c r="C34" s="2">
         <v>3</v>
       </c>
@@ -1172,15 +1252,29 @@
       <c r="E34" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="G34" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I34" s="25"/>
+    </row>
+    <row r="35" spans="3:9" ht="28.5" x14ac:dyDescent="0.3">
       <c r="C35" s="2"/>
       <c r="D35" s="11" t="s">
         <v>14</v>
       </c>
       <c r="E35" s="3"/>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="G35" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="H35" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I35" s="25"/>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C36" s="2">
         <v>4</v>
       </c>
@@ -1190,15 +1284,27 @@
       <c r="E36" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="37" spans="3:5" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="G36" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C37" s="12"/>
       <c r="D37" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E37" s="5"/>
-    </row>
-    <row r="38" spans="3:5" ht="42.75" x14ac:dyDescent="0.3">
+      <c r="G37" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="H37" s="27"/>
+      <c r="I37" s="28"/>
+    </row>
+    <row r="38" spans="3:9" ht="42.75" x14ac:dyDescent="0.3">
       <c r="C38" s="2">
         <v>5</v>
       </c>
@@ -1208,15 +1314,25 @@
       <c r="E38" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="G38" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C39" s="2"/>
       <c r="D39" s="11" t="s">
         <v>20</v>
       </c>
       <c r="E39" s="3"/>
-    </row>
-    <row r="40" spans="3:5" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="G39" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+    </row>
+    <row r="40" spans="3:9" ht="28.5" x14ac:dyDescent="0.3">
       <c r="C40" s="2">
         <v>6</v>
       </c>
@@ -1227,31 +1343,34 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D42" s="4"/>
       <c r="E42" s="6"/>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="G39:I39"/>
     <mergeCell ref="G25:I25"/>
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="G38:I38"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
